--- a/docs/walkingspeed_day2.xlsx
+++ b/docs/walkingspeed_day2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\work\qib projects\teaching\R_for_Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2A85A9-0AF7-41C1-8908-DDC6A4D4585E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE161A65-8D78-4FD6-AE5E-DCD19A652FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D8CBC4D1-9FB4-4831-9130-5887E58C9FEE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="25">
   <si>
     <t>patid</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>treat</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Don't know</t>
@@ -3578,15 +3575,17 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3617,13 +3616,13 @@
         <v>23</v>
       </c>
       <c r="C2">
-        <v>1.8975120000000001</v>
+        <v>1.8979999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -3637,7 +3636,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>3.5371579999999998</v>
+        <v>3.5369999999999999</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -3657,7 +3656,7 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>2.927432</v>
+        <v>2.927</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -3677,7 +3676,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1.819787</v>
+        <v>1.82</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -3697,7 +3696,7 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>2.2042579999999998</v>
+        <v>2.2040000000000002</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -3717,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>3.038065</v>
+        <v>3.0379999999999998</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -3737,7 +3736,7 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>2.1441910000000002</v>
+        <v>2.1440000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -3757,7 +3756,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2.4695800000000001</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -3777,7 +3776,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>1.7203250000000001</v>
+        <v>1.72</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -3797,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>2.483921</v>
+        <v>2.484</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -3817,7 +3816,7 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>2.1476410000000001</v>
+        <v>2.1480000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -3837,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>2.4404819999999998</v>
+        <v>2.44</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -3857,7 +3856,7 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>2.6159089999999998</v>
+        <v>2.6160000000000001</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -3877,7 +3876,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>2.7796159999999999</v>
+        <v>2.78</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -3897,7 +3896,7 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>1.83866</v>
+        <v>1.839</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -3917,7 +3916,7 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>3.7391459999999999</v>
+        <v>3.7389999999999999</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -3937,7 +3936,7 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>2.3409550000000001</v>
+        <v>2.3410000000000002</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -3957,7 +3956,7 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>1.956132</v>
+        <v>1.956</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -3977,7 +3976,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>2.4904250000000001</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -3997,7 +3996,7 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>5.4153079999999996</v>
+        <v>5.415</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -4017,7 +4016,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>3.1946669999999999</v>
+        <v>3.1949999999999998</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -4037,7 +4036,7 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>3.0676040000000002</v>
+        <v>3.0680000000000001</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -4057,7 +4056,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>3.0278719999999999</v>
+        <v>3.028</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -4097,7 +4096,7 @@
         <v>23</v>
       </c>
       <c r="C26">
-        <v>2.6416029999999999</v>
+        <v>2.6419999999999999</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -4117,7 +4116,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>2.6903779999999999</v>
+        <v>2.69</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -4137,7 +4136,7 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>2.321771</v>
+        <v>2.3220000000000001</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -4157,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>1.54E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -4177,7 +4176,7 @@
         <v>23</v>
       </c>
       <c r="C30">
-        <v>1.7457469999999999</v>
+        <v>1.746</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -4197,7 +4196,7 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>2.7164269999999999</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -4217,7 +4216,7 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>2.916166</v>
+        <v>2.9159999999999999</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -4237,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>1.9527410000000001</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -4257,7 +4256,7 @@
         <v>23</v>
       </c>
       <c r="C34">
-        <v>1.6936720000000001</v>
+        <v>1.694</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -4277,7 +4276,7 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>2.7076470000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -4297,7 +4296,7 @@
         <v>23</v>
       </c>
       <c r="C36">
-        <v>2.4287510000000001</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -4317,7 +4316,7 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>5.0562139999999998</v>
+        <v>5.056</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -4337,7 +4336,7 @@
         <v>23</v>
       </c>
       <c r="C38">
-        <v>1.677497</v>
+        <v>1.677</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -4357,7 +4356,7 @@
         <v>12</v>
       </c>
       <c r="C39">
-        <v>3.3195929999999998</v>
+        <v>3.32</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -4377,7 +4376,7 @@
         <v>23</v>
       </c>
       <c r="C40">
-        <v>3.359947</v>
+        <v>3.36</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -4397,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>1.493927</v>
+        <v>1.494</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -4417,7 +4416,7 @@
         <v>23</v>
       </c>
       <c r="C42">
-        <v>2.5739879999999999</v>
+        <v>2.5739999999999998</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -4437,7 +4436,7 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>2.6548150000000001</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -4457,7 +4456,7 @@
         <v>23</v>
       </c>
       <c r="C44">
-        <v>6.5885680000000004</v>
+        <v>6.5890000000000004</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -4477,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <v>2.8569719999999998</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -4496,8 +4495,8 @@
       <c r="B46" t="s">
         <v>23</v>
       </c>
-      <c r="C46" t="s">
-        <v>24</v>
+      <c r="C46">
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -4517,7 +4516,7 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>2.4016130000000002</v>
+        <v>2.4020000000000001</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -4537,7 +4536,7 @@
         <v>23</v>
       </c>
       <c r="C48">
-        <v>1.918531</v>
+        <v>1.919</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -4557,7 +4556,7 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>1.7141690000000001</v>
+        <v>1.714</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -4577,7 +4576,7 @@
         <v>23</v>
       </c>
       <c r="C50">
-        <v>1.8800140000000001</v>
+        <v>1.88</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -4597,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>3.183433</v>
+        <v>3.1829999999999998</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -4617,7 +4616,7 @@
         <v>23</v>
       </c>
       <c r="C52">
-        <v>1.921532</v>
+        <v>1.9219999999999999</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -4637,7 +4636,7 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>2.897221</v>
+        <v>2.8969999999999998</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -4657,7 +4656,7 @@
         <v>23</v>
       </c>
       <c r="C54">
-        <v>2.6582110000000001</v>
+        <v>2.6579999999999999</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -4677,7 +4676,7 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>10.590513</v>
+        <v>10.590999999999999</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -4697,7 +4696,7 @@
         <v>23</v>
       </c>
       <c r="C56">
-        <v>3.0671520000000001</v>
+        <v>3.0670000000000002</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -4717,7 +4716,7 @@
         <v>12</v>
       </c>
       <c r="C57">
-        <v>2.572139</v>
+        <v>2.5720000000000001</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -4737,7 +4736,7 @@
         <v>23</v>
       </c>
       <c r="C58">
-        <v>1.7336929999999999</v>
+        <v>1.734</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -4757,7 +4756,7 @@
         <v>12</v>
       </c>
       <c r="C59">
-        <v>2.3805589999999999</v>
+        <v>2.3809999999999998</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -4777,7 +4776,7 @@
         <v>23</v>
       </c>
       <c r="C60">
-        <v>2.3695499999999998</v>
+        <v>2.37</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
@@ -4797,7 +4796,7 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>3.5284610000000001</v>
+        <v>3.528</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -4817,7 +4816,7 @@
         <v>23</v>
       </c>
       <c r="C62">
-        <v>2.4921160000000002</v>
+        <v>2.492</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -4837,7 +4836,7 @@
         <v>12</v>
       </c>
       <c r="C63">
-        <v>12.168967</v>
+        <v>12.169</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -4857,7 +4856,7 @@
         <v>23</v>
       </c>
       <c r="C64">
-        <v>2.2049609999999999</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -4877,7 +4876,7 @@
         <v>12</v>
       </c>
       <c r="C65">
-        <v>2.2743980000000001</v>
+        <v>2.274</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -4897,7 +4896,7 @@
         <v>23</v>
       </c>
       <c r="C66">
-        <v>2.360989</v>
+        <v>2.3610000000000002</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -4917,7 +4916,7 @@
         <v>12</v>
       </c>
       <c r="C67">
-        <v>2.6310709999999999</v>
+        <v>2.6309999999999998</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -4937,7 +4936,7 @@
         <v>23</v>
       </c>
       <c r="C68">
-        <v>2.1684070000000002</v>
+        <v>2.1680000000000001</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -4957,7 +4956,7 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>2.5249579999999998</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -4977,7 +4976,7 @@
         <v>23</v>
       </c>
       <c r="C70">
-        <v>1.804252</v>
+        <v>1.804</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -4997,7 +4996,7 @@
         <v>12</v>
       </c>
       <c r="C71">
-        <v>2.1918470000000001</v>
+        <v>2.1920000000000002</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -5017,7 +5016,7 @@
         <v>23</v>
       </c>
       <c r="C72">
-        <v>2.4797500000000001</v>
+        <v>2.48</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -5037,7 +5036,7 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>3.9439160000000002</v>
+        <v>3.944</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -5057,7 +5056,7 @@
         <v>23</v>
       </c>
       <c r="C74">
-        <v>2.2133400000000001</v>
+        <v>2.2130000000000001</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -5077,7 +5076,7 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>3.390101</v>
+        <v>3.39</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -5097,7 +5096,7 @@
         <v>23</v>
       </c>
       <c r="C76">
-        <v>2.0026060000000001</v>
+        <v>2.0030000000000001</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -5117,7 +5116,7 @@
         <v>12</v>
       </c>
       <c r="C77">
-        <v>5.1468949999999998</v>
+        <v>5.1470000000000002</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -5137,7 +5136,7 @@
         <v>23</v>
       </c>
       <c r="C78">
-        <v>2.541782</v>
+        <v>2.5419999999999998</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -5157,7 +5156,7 @@
         <v>12</v>
       </c>
       <c r="C79">
-        <v>2.426002</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -5177,7 +5176,7 @@
         <v>23</v>
       </c>
       <c r="C80">
-        <v>2.6327820000000002</v>
+        <v>2.633</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -5197,7 +5196,7 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>3.340182</v>
+        <v>3.34</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -5217,7 +5216,7 @@
         <v>23</v>
       </c>
       <c r="C82">
-        <v>2.6700279999999998</v>
+        <v>2.67</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -5237,7 +5236,7 @@
         <v>12</v>
       </c>
       <c r="C83">
-        <v>2.3926099999999999</v>
+        <v>2.3929999999999998</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -5257,7 +5256,7 @@
         <v>23</v>
       </c>
       <c r="C84">
-        <v>1.906515</v>
+        <v>1.907</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -5277,7 +5276,7 @@
         <v>12</v>
       </c>
       <c r="C85">
-        <v>2.3751769999999999</v>
+        <v>2.375</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -5297,7 +5296,7 @@
         <v>23</v>
       </c>
       <c r="C86">
-        <v>1.6465019999999999</v>
+        <v>1.647</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -5317,7 +5316,7 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>2.2106789999999998</v>
+        <v>2.2109999999999999</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -5337,7 +5336,7 @@
         <v>23</v>
       </c>
       <c r="C88">
-        <v>2.38794</v>
+        <v>2.3879999999999999</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -5357,7 +5356,7 @@
         <v>12</v>
       </c>
       <c r="C89">
-        <v>3.3442240000000001</v>
+        <v>3.3439999999999999</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -5377,7 +5376,7 @@
         <v>23</v>
       </c>
       <c r="C90">
-        <v>1.4348970000000001</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -5397,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="C91">
-        <v>2.2334309999999999</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -5417,7 +5416,7 @@
         <v>23</v>
       </c>
       <c r="C92">
-        <v>2.971168</v>
+        <v>2.9710000000000001</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -5437,7 +5436,7 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>2.7499030000000002</v>
+        <v>2.75</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -5457,7 +5456,7 @@
         <v>23</v>
       </c>
       <c r="C94">
-        <v>3.05287</v>
+        <v>3.0529999999999999</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -5477,7 +5476,7 @@
         <v>12</v>
       </c>
       <c r="C95">
-        <v>3.3610099999999998</v>
+        <v>3.3610000000000002</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -5497,7 +5496,7 @@
         <v>23</v>
       </c>
       <c r="C96">
-        <v>3.1089730000000002</v>
+        <v>3.109</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -5517,7 +5516,7 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>2.803598</v>
+        <v>2.8039999999999998</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -5537,7 +5536,7 @@
         <v>23</v>
       </c>
       <c r="C98">
-        <v>2.1648960000000002</v>
+        <v>2.165</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -5557,7 +5556,7 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>4.4995229999999999</v>
+        <v>4.5</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -5577,7 +5576,7 @@
         <v>23</v>
       </c>
       <c r="C100">
-        <v>17.641418000000002</v>
+        <v>17.640999999999998</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -5597,7 +5596,7 @@
         <v>12</v>
       </c>
       <c r="C101">
-        <v>3.6428210000000001</v>
+        <v>3.6429999999999998</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -5617,7 +5616,7 @@
         <v>23</v>
       </c>
       <c r="C102">
-        <v>2.39262</v>
+        <v>2.3929999999999998</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -5637,7 +5636,7 @@
         <v>12</v>
       </c>
       <c r="C103">
-        <v>2.2250540000000001</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -5657,7 +5656,7 @@
         <v>23</v>
       </c>
       <c r="C104">
-        <v>2.3206509999999998</v>
+        <v>2.3210000000000002</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -5677,7 +5676,7 @@
         <v>12</v>
       </c>
       <c r="C105">
-        <v>2.3183569999999998</v>
+        <v>2.3180000000000001</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -5697,7 +5696,7 @@
         <v>23</v>
       </c>
       <c r="C106">
-        <v>2.9392510000000001</v>
+        <v>2.9390000000000001</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -5717,7 +5716,7 @@
         <v>12</v>
       </c>
       <c r="C107">
-        <v>2.2415620000000001</v>
+        <v>2.242</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -5737,7 +5736,7 @@
         <v>23</v>
       </c>
       <c r="C108">
-        <v>1.9161170000000001</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -5757,7 +5756,7 @@
         <v>12</v>
       </c>
       <c r="C109">
-        <v>2.4989690000000002</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -5777,7 +5776,7 @@
         <v>23</v>
       </c>
       <c r="C110">
-        <v>1.7994429999999999</v>
+        <v>1.7989999999999999</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -5797,7 +5796,7 @@
         <v>12</v>
       </c>
       <c r="C111">
-        <v>2.378422</v>
+        <v>2.3780000000000001</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
@@ -5817,7 +5816,7 @@
         <v>23</v>
       </c>
       <c r="C112">
-        <v>2.1908859999999999</v>
+        <v>2.1909999999999998</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -5837,7 +5836,7 @@
         <v>12</v>
       </c>
       <c r="C113">
-        <v>2.3707669999999998</v>
+        <v>2.371</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -5857,7 +5856,7 @@
         <v>23</v>
       </c>
       <c r="C114">
-        <v>2.0052409999999998</v>
+        <v>2.0049999999999999</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -5877,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="C115">
-        <v>2.1691389999999999</v>
+        <v>2.169</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -5897,7 +5896,7 @@
         <v>23</v>
       </c>
       <c r="C116">
-        <v>2.126668</v>
+        <v>2.1269999999999998</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
@@ -5917,7 +5916,7 @@
         <v>12</v>
       </c>
       <c r="C117">
-        <v>2.373494</v>
+        <v>2.3730000000000002</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -5937,7 +5936,7 @@
         <v>23</v>
       </c>
       <c r="C118">
-        <v>2.8871470000000001</v>
+        <v>2.887</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -5957,7 +5956,7 @@
         <v>12</v>
       </c>
       <c r="C119">
-        <v>2.959015</v>
+        <v>2.9590000000000001</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -5977,7 +5976,7 @@
         <v>23</v>
       </c>
       <c r="C120">
-        <v>1.793088</v>
+        <v>1.7929999999999999</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -5997,7 +5996,7 @@
         <v>12</v>
       </c>
       <c r="C121">
-        <v>3.8818429999999999</v>
+        <v>3.8820000000000001</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -6017,7 +6016,7 @@
         <v>23</v>
       </c>
       <c r="C122">
-        <v>2.1939120000000001</v>
+        <v>2.194</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -6037,7 +6036,7 @@
         <v>12</v>
       </c>
       <c r="C123">
-        <v>2.2962099999999999</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -6057,7 +6056,7 @@
         <v>23</v>
       </c>
       <c r="C124">
-        <v>2.1160420000000002</v>
+        <v>2.1160000000000001</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -6077,7 +6076,7 @@
         <v>12</v>
       </c>
       <c r="C125">
-        <v>3.07586</v>
+        <v>3.0760000000000001</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -6097,7 +6096,7 @@
         <v>23</v>
       </c>
       <c r="C126">
-        <v>2.5261290000000001</v>
+        <v>2.5259999999999998</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
@@ -6117,7 +6116,7 @@
         <v>12</v>
       </c>
       <c r="C127">
-        <v>5.0333589999999999</v>
+        <v>5.0330000000000004</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
@@ -6137,7 +6136,7 @@
         <v>23</v>
       </c>
       <c r="C128">
-        <v>2.088295</v>
+        <v>2.0880000000000001</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -6157,7 +6156,7 @@
         <v>12</v>
       </c>
       <c r="C129">
-        <v>2.87073</v>
+        <v>2.871</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
@@ -6177,7 +6176,7 @@
         <v>23</v>
       </c>
       <c r="C130">
-        <v>2.3745340000000001</v>
+        <v>2.375</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -6197,7 +6196,7 @@
         <v>12</v>
       </c>
       <c r="C131">
-        <v>3.9805199999999998</v>
+        <v>3.9809999999999999</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -6217,7 +6216,7 @@
         <v>23</v>
       </c>
       <c r="C132">
-        <v>2.280535</v>
+        <v>2.2810000000000001</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
@@ -6237,7 +6236,7 @@
         <v>12</v>
       </c>
       <c r="C133">
-        <v>2.2901220000000002</v>
+        <v>2.29</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
@@ -6257,7 +6256,7 @@
         <v>23</v>
       </c>
       <c r="C134">
-        <v>2.3554979999999999</v>
+        <v>2.355</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -6277,7 +6276,7 @@
         <v>12</v>
       </c>
       <c r="C135">
-        <v>1.8433139999999999</v>
+        <v>1.843</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
@@ -6297,7 +6296,7 @@
         <v>12</v>
       </c>
       <c r="C136">
-        <v>2.0839270000000001</v>
+        <v>2.0840000000000001</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
